--- a/UPVC.xlsx
+++ b/UPVC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\PhoenixTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4827B-A01C-47FC-AFAC-4AC248A16DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09774767-D5C4-48D3-97D8-FE2F2489E470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="1" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost To Company" sheetId="1" r:id="rId1"/>
@@ -671,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025413-3D1C-4364-BF5B-5EDF09FB8F88}">
   <dimension ref="B3:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,18 +770,18 @@
         <v>TC60-112</v>
       </c>
       <c r="D4" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f>((((E4+D4)*2/19.3)*5.8)*'ITEM LIST'!F3)*120%</f>
-        <v>1164.1303212435232</v>
+        <v>2032.6084974093264</v>
       </c>
       <c r="G4">
         <f>(((E4+D4)*2/15.5)*5*'ITEM LIST'!F6)*120%</f>
-        <v>192.5326451612903</v>
+        <v>352.97651612903229</v>
       </c>
       <c r="H4" t="str">
         <f>'ITEM LIST'!B4</f>
@@ -789,23 +789,23 @@
       </c>
       <c r="I4">
         <f>D4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <f>E4/2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <f>(((I4+J4)*2/19.3)*5.8*'ITEM LIST'!F4*3)*120%</f>
-        <v>1582.7083274611393</v>
+        <v>3014.6825284974084</v>
       </c>
       <c r="L4">
         <f>(((I4+J4)*2/15.5*5*'ITEM LIST'!F7)*3)*120%</f>
-        <v>532.07535483870959</v>
+        <v>1064.1507096774192</v>
       </c>
       <c r="M4">
         <f>(D4*E4)*'ITEM LIST'!J4</f>
-        <v>640</v>
+        <v>2400</v>
       </c>
       <c r="N4">
         <f>'ITEM LIST'!J11</f>
@@ -824,11 +824,11 @@
       </c>
       <c r="R4">
         <f>((I4+J4))*2/19.3*5.8*'ITEM LIST'!F10*3</f>
-        <v>240.67175129533675</v>
+        <v>458.42238341968908</v>
       </c>
       <c r="S4">
         <f>(I4*J4)*'ITEM LIST'!J13</f>
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="T4">
         <f>'ITEM LIST'!J14</f>
@@ -839,15 +839,15 @@
       </c>
       <c r="V4">
         <f>SUM(K4:U4)+F4+G4</f>
-        <v>7297.1183999999985</v>
+        <v>12487.840635132876</v>
       </c>
       <c r="W4">
         <f>V4/(D4*E4)</f>
-        <v>912.13979999999981</v>
+        <v>416.26135450442922</v>
       </c>
       <c r="X4">
         <f>W4*115%</f>
-        <v>1048.9607699999997</v>
+        <v>478.70055768009354</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="F5">
         <f>((((E5+D5)*2/19.3)*5.8)*'ITEM LIST'!F8)*120%</f>
-        <v>183.20739481865283</v>
+        <v>174.48323316062175</v>
       </c>
       <c r="G5">
         <f>(((E5+D5)*2/15.5)*5*'ITEM LIST'!F9)*120%</f>
@@ -881,7 +881,7 @@
       </c>
       <c r="R5">
         <f>((D5+E5))*2/19.3*5.8*'ITEM LIST'!F11</f>
-        <v>152.67282901554404</v>
+        <v>145.40269430051814</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -891,11 +891,11 @@
       </c>
       <c r="V5">
         <f>SUM(K5:U5)+F5+G5</f>
-        <v>3441.9179012535519</v>
+        <v>3425.9236048804946</v>
       </c>
       <c r="W5">
         <f>V5/(D5*E5)</f>
-        <v>430.23973765669399</v>
+        <v>428.24045061006183</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -913,11 +913,11 @@
       </c>
       <c r="F6">
         <f>((((E6+D6)*2/19.3)*5.8)*'ITEM LIST'!F8)*120%</f>
-        <v>183.20739481865283</v>
+        <v>174.48323316062175</v>
       </c>
       <c r="G6">
         <f>(((E6+D6)*2/15.5)*5*'ITEM LIST'!F8)*120%</f>
-        <v>196.65754838709677</v>
+        <v>187.29290322580647</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="K6">
         <f>(((I6+J6)*2/19.3)*5.8*'ITEM LIST'!F12)*120%</f>
-        <v>783.08438549222808</v>
+        <v>745.79465284974094</v>
       </c>
       <c r="L6">
         <f>(((I6+J6)*2/15.5*5*'ITEM LIST'!F13))*120%</f>
@@ -951,7 +951,7 @@
       </c>
       <c r="R6">
         <f>((D6+E6))*2/19.3*5.8*'ITEM LIST'!F11</f>
-        <v>152.67282901554404</v>
+        <v>145.40269430051814</v>
       </c>
       <c r="S6">
         <f>(D6*E6)*'ITEM LIST'!J13</f>
@@ -965,11 +965,11 @@
       </c>
       <c r="V6">
         <f>SUM(K6:U6)+F6+G6</f>
-        <v>5607.6500286812634</v>
+        <v>5545.0013545044294</v>
       </c>
       <c r="W6">
         <f>V6/(D6*E6)</f>
-        <v>700.95625358515792</v>
+        <v>693.12516931305368</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5692BE3A-7959-4013-A80E-EF53A006B061}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="15">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>16</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F3" s="16">
         <f>'ITEM LIST'!$E3*'ITEM LIST'!$C3</f>
-        <v>269.01</v>
+        <v>256.2</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>26</v>
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F4" s="18">
         <f>'ITEM LIST'!$E4*'ITEM LIST'!$C4</f>
-        <v>182.86799999999999</v>
+        <v>174.16</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>27</v>
@@ -1206,7 +1206,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="15">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>16</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="F5" s="16">
         <f>'ITEM LIST'!$E5*'ITEM LIST'!$C5</f>
-        <v>33.369</v>
+        <v>31.78</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="3">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F8" s="18">
         <f>'ITEM LIST'!$E8*'ITEM LIST'!$C8</f>
-        <v>42.335999999999999</v>
+        <v>40.32</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="3">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="F10" s="18">
         <f>'ITEM LIST'!$E10*'ITEM LIST'!$C10</f>
-        <v>33.369</v>
+        <v>31.78</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>20</v>
@@ -1368,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="15">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>16</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F11" s="16">
         <f>'ITEM LIST'!$E11*'ITEM LIST'!$C11</f>
-        <v>42.335999999999999</v>
+        <v>40.32</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>32</v>
@@ -1393,7 +1393,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F12" s="6">
         <f>'ITEM LIST'!$E12*'ITEM LIST'!$C12</f>
-        <v>180.95700000000002</v>
+        <v>172.34</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>33</v>

--- a/UPVC.xlsx
+++ b/UPVC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\PhoenixTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09774767-D5C4-48D3-97D8-FE2F2489E470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38332A47-B837-4D6E-8882-D4F96C8B8A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="1" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost To Company" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>TC60-112</t>
   </si>
@@ -91,12 +91,6 @@
     <t>GI</t>
   </si>
   <si>
-    <t>BREADTH</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
     <t>CONVERSION RATE</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>SASH TYPE</t>
   </si>
   <si>
-    <t>SASH LENGTH</t>
-  </si>
-  <si>
-    <t>SASH BREADTH</t>
-  </si>
-  <si>
     <t>4 WHEEL ROLLER</t>
   </si>
   <si>
@@ -193,7 +181,49 @@
     <t>GIPC60-7</t>
   </si>
   <si>
-    <t>TC60-8 (BEADING) 3TRACK</t>
+    <t>15%P</t>
+  </si>
+  <si>
+    <t>withGST&amp;Profit</t>
+  </si>
+  <si>
+    <t>2 TRACK</t>
+  </si>
+  <si>
+    <t>WIDTH</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>TC-60-1</t>
+  </si>
+  <si>
+    <t>TC60-8 (BEADING) 3/2TRACK</t>
+  </si>
+  <si>
+    <t>TC60-1</t>
+  </si>
+  <si>
+    <t>GITC60-1</t>
+  </si>
+  <si>
+    <t>SASH HEIGHT</t>
+  </si>
+  <si>
+    <t>SASH WIDTH</t>
+  </si>
+  <si>
+    <t>2.5TRACK</t>
+  </si>
+  <si>
+    <t>TC92-1</t>
+  </si>
+  <si>
+    <t>TC60-4</t>
+  </si>
+  <si>
+    <t>GITC60-4</t>
   </si>
 </sst>
 </file>
@@ -332,14 +362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -355,6 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025413-3D1C-4364-BF5B-5EDF09FB8F88}">
-  <dimension ref="B3:X23"/>
+  <dimension ref="B3:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,66 +716,67 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="11" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>46</v>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>1</v>
@@ -752,60 +785,66 @@
         <v>2</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" t="str">
         <f>'ITEM LIST'!B3</f>
         <v>TC60-112</v>
       </c>
-      <c r="D4" s="21">
-        <v>5</v>
-      </c>
-      <c r="E4" s="21">
-        <v>6</v>
+      <c r="D4" s="20">
+        <v>875</v>
+      </c>
+      <c r="E4" s="20">
+        <v>895</v>
       </c>
       <c r="F4">
-        <f>((((E4+D4)*2/19.3)*5.8)*'ITEM LIST'!F3)*120%</f>
-        <v>2032.6084974093264</v>
+        <f>(((D4+E4)*2/1000)*'ITEM LIST'!F3)*110%</f>
+        <v>1047.52494</v>
       </c>
       <c r="G4">
-        <f>(((E4+D4)*2/15.5)*5*'ITEM LIST'!F6)*120%</f>
-        <v>352.97651612903229</v>
+        <f>(((D4+E4)*2/1000)*'ITEM LIST'!F6)*2*110%</f>
+        <v>322.79702400000002</v>
       </c>
       <c r="H4" t="str">
         <f>'ITEM LIST'!B4</f>
         <v>TC60-5</v>
       </c>
       <c r="I4">
-        <f>D4</f>
-        <v>5</v>
+        <f>D4/2</f>
+        <v>437.5</v>
       </c>
       <c r="J4">
-        <f>E4/2</f>
-        <v>3</v>
+        <f>E4</f>
+        <v>895</v>
       </c>
       <c r="K4">
-        <f>(((I4+J4)*2/19.3)*5.8*'ITEM LIST'!F4*3)*120%</f>
-        <v>3014.6825284974084</v>
+        <f>(((J4+I4)*2/1000)*'ITEM LIST'!F4*3)*110%</f>
+        <v>1608.232626</v>
       </c>
       <c r="L4">
-        <f>(((I4+J4)*2/15.5*5*'ITEM LIST'!F7)*3)*120%</f>
-        <v>1064.1507096774192</v>
+        <f>((((J4+I4)*2/1000)*'ITEM LIST'!F7)*3)*110%</f>
+        <v>503.67860400000001</v>
       </c>
       <c r="M4">
-        <f>(D4*E4)*'ITEM LIST'!J4</f>
-        <v>2400</v>
+        <f>(E4*D4)/92903.04*'ITEM LIST'!J4</f>
+        <v>674.35898760686416</v>
       </c>
       <c r="N4">
         <f>'ITEM LIST'!J11</f>
@@ -823,124 +862,138 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <f>((I4+J4))*2/19.3*5.8*'ITEM LIST'!F10*3</f>
-        <v>458.42238341968908</v>
+        <f>((J4+I4))*2/1000*'ITEM LIST'!F10*3*110%</f>
+        <v>293.46367050000003</v>
       </c>
       <c r="S4">
-        <f>(I4*J4)*'ITEM LIST'!J13</f>
-        <v>300</v>
+        <f>(J4*I4)/92903.04*'ITEM LIST'!J13</f>
+        <v>84.29487345085802</v>
       </c>
       <c r="T4">
         <f>'ITEM LIST'!J14</f>
         <v>100</v>
       </c>
       <c r="U4">
-        <v>2000</v>
+        <f>MIN(E4*D4/92903.04*50,2000)</f>
+        <v>421.47436725429009</v>
       </c>
       <c r="V4">
         <f>SUM(K4:U4)+F4+G4</f>
-        <v>12487.840635132876</v>
+        <v>5820.8250928120133</v>
       </c>
       <c r="W4">
-        <f>V4/(D4*E4)</f>
-        <v>416.26135450442922</v>
+        <f>V4/(E4*D4)*92903.04</f>
+        <v>690.53132824327929</v>
       </c>
       <c r="X4">
         <f>W4*115%</f>
-        <v>478.70055768009354</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+        <v>794.11102747977111</v>
+      </c>
+      <c r="Y4">
+        <f>X4*118%</f>
+        <v>937.05101242612989</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" t="str">
         <f>'ITEM LIST'!B8</f>
         <v>PC60-1</v>
       </c>
-      <c r="D5" s="21">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4</v>
+      <c r="D5" s="20">
+        <v>875</v>
+      </c>
+      <c r="E5" s="20">
+        <v>895</v>
       </c>
       <c r="F5">
-        <f>((((E5+D5)*2/19.3)*5.8)*'ITEM LIST'!F8)*120%</f>
-        <v>174.48323316062175</v>
+        <f>(((D5+E5)*2/1000)*'ITEM LIST'!F8)*110%</f>
+        <v>164.85638400000002</v>
       </c>
       <c r="G5">
-        <f>(((E5+D5)*2/15.5)*5*'ITEM LIST'!F9)*120%</f>
-        <v>266.03767741935479</v>
+        <f>(((D5+E5)*2/1000)*'ITEM LIST'!F9)*110%</f>
+        <v>223.017168</v>
       </c>
       <c r="M5">
-        <f>(D5*E5)*'ITEM LIST'!J4</f>
-        <v>640</v>
+        <f>(E5*D5)/92903.04*'ITEM LIST'!J4</f>
+        <v>674.35898760686416</v>
       </c>
       <c r="Q5">
         <v>100</v>
       </c>
       <c r="R5">
-        <f>((D5+E5))*2/19.3*5.8*'ITEM LIST'!F11</f>
-        <v>145.40269430051814</v>
+        <f>((E5+D5))*2/1000*'ITEM LIST'!F11*110%</f>
+        <v>164.85638400000002</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
       <c r="U5">
-        <v>2000</v>
+        <f>MIN(E5*D5/92903.04*50,2000)</f>
+        <v>421.47436725429009</v>
       </c>
       <c r="V5">
         <f>SUM(K5:U5)+F5+G5</f>
-        <v>3425.9236048804946</v>
+        <v>1848.5632908611542</v>
       </c>
       <c r="W5">
-        <f>V5/(D5*E5)</f>
-        <v>428.24045061006183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+        <f>V5/(E5*D5)*92903.04</f>
+        <v>219.29723780163502</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X8" si="0">W5*115%</f>
+        <v>252.19182347188024</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y8" si="1">X5*118%</f>
+        <v>297.58635169681867</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20">
+        <v>875</v>
+      </c>
+      <c r="E6" s="20">
+        <v>895</v>
+      </c>
+      <c r="F6">
+        <f>(((D6+E6)*2/1000)*'ITEM LIST'!F8)*110%</f>
+        <v>164.85638400000002</v>
+      </c>
+      <c r="G6">
+        <f>(((D6+E6)*2/1000)*'ITEM LIST'!F9)*110%</f>
+        <v>223.017168</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="21">
-        <v>2</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f>((((E6+D6)*2/19.3)*5.8)*'ITEM LIST'!F8)*120%</f>
-        <v>174.48323316062175</v>
-      </c>
-      <c r="G6">
-        <f>(((E6+D6)*2/15.5)*5*'ITEM LIST'!F8)*120%</f>
-        <v>187.29290322580647</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
       </c>
       <c r="I6">
         <f>D6</f>
-        <v>2</v>
+        <v>875</v>
       </c>
       <c r="J6">
         <f>E6</f>
-        <v>4</v>
+        <v>895</v>
       </c>
       <c r="K6">
-        <f>(((I6+J6)*2/19.3)*5.8*'ITEM LIST'!F12)*120%</f>
-        <v>745.79465284974094</v>
+        <f>(((J6+I6)*2/1000)*'ITEM LIST'!F12)*110%</f>
+        <v>704.64655800000014</v>
       </c>
       <c r="L6">
-        <f>(((I6+J6)*2/15.5*5*'ITEM LIST'!F13))*120%</f>
-        <v>252.02787096774193</v>
+        <f>((((J6+I6)*2/1000)*'ITEM LIST'!F13))*110%</f>
+        <v>211.272864</v>
       </c>
       <c r="M6">
-        <f>(D6*E6)*'ITEM LIST'!J6</f>
-        <v>1600</v>
+        <f>(E6*D6)/92903.04*'ITEM LIST'!J4</f>
+        <v>674.35898760686416</v>
       </c>
       <c r="P6">
         <f>'ITEM LIST'!J7</f>
@@ -950,154 +1003,350 @@
         <v>100</v>
       </c>
       <c r="R6">
-        <f>((D6+E6))*2/19.3*5.8*'ITEM LIST'!F11</f>
-        <v>145.40269430051814</v>
+        <f>((E6+D6))*2/1000*'ITEM LIST'!F11*110%</f>
+        <v>164.85638400000002</v>
       </c>
       <c r="S6">
-        <f>(D6*E6)*'ITEM LIST'!J13</f>
-        <v>160</v>
+        <f>(E6*D6)/92903.04*'ITEM LIST'!J13</f>
+        <v>168.58974690171604</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="U6">
-        <v>2000</v>
+        <f>MIN(E6*D6/92903.04*50,2000)</f>
+        <v>421.47436725429009</v>
       </c>
       <c r="V6">
         <f>SUM(K6:U6)+F6+G6</f>
-        <v>5545.0013545044294</v>
+        <v>3013.0724597628705</v>
       </c>
       <c r="W6">
-        <f>V6/(D6*E6)</f>
-        <v>693.12516931305368</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+        <f>V6/(E6*D6)*92903.04</f>
+        <v>357.44433040989412</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>411.06097997137823</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>485.05195636622631</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20">
+        <v>875</v>
+      </c>
+      <c r="E7" s="20">
+        <v>895</v>
+      </c>
+      <c r="F7">
+        <f>(((D7+E7)*2/1000)*'ITEM LIST'!F14)*110%</f>
+        <v>689.76369000000022</v>
+      </c>
       <c r="G7">
-        <f>(((E7+D7)*2/15.5)*5*'ITEM LIST'!F9)*120%</f>
-        <v>0</v>
+        <f>(((D7+E7)*2/1000)*'ITEM LIST'!F15)*110%</f>
+        <v>202.48800000000003</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f>D7/2</f>
+        <v>437.5</v>
+      </c>
+      <c r="J7">
+        <f>E7</f>
+        <v>895</v>
+      </c>
+      <c r="K7">
+        <f>(((J7+I7)*2/1000)*'ITEM LIST'!F4*2)*110%</f>
+        <v>1072.155084</v>
+      </c>
+      <c r="L7">
+        <f>((((J7+I7)*2/1000)*'ITEM LIST'!F7)*2)*110%</f>
+        <v>335.78573599999999</v>
       </c>
       <c r="M7">
-        <f>(D7*E7)*'ITEM LIST'!J7</f>
-        <v>0</v>
+        <f>(E7*D7)/92903.04*'ITEM LIST'!J4</f>
+        <v>674.35898760686416</v>
+      </c>
+      <c r="N7">
+        <f>'ITEM LIST'!J11</f>
+        <v>255</v>
+      </c>
+      <c r="P7">
+        <f>'ITEM LIST'!J7*2</f>
+        <v>160</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <f>((J7+I7))*2/1000*'ITEM LIST'!F10*2*110%</f>
+        <v>195.64244700000003</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U15" si="2">MIN(E7*D7/92903.04*50,2000)</f>
+        <v>421.47436725429009</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7:V15" si="0">SUM(K7:U7)+F7+G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K7:U7)+F7+G7</f>
+        <v>4206.6683118611545</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W15" si="3">V7/(E7*D7)*92903.04</f>
+        <v>499.04201046265825</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>573.89831203205699</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>677.20000819782717</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="20">
+        <v>875</v>
+      </c>
+      <c r="E8" s="20">
+        <v>895</v>
+      </c>
+      <c r="F8">
+        <f>(((D8+E8)*2/1000)*'ITEM LIST'!F16)*110%</f>
+        <v>769.90221000000008</v>
+      </c>
       <c r="G8">
-        <f>(((E8+D8)*2/15.5)*5*'ITEM LIST'!F10)*120%</f>
-        <v>0</v>
+        <f>(((D8+E8)*2/1000)*'ITEM LIST'!F15)*110%</f>
+        <v>202.48800000000003</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <f>D8/2</f>
+        <v>437.5</v>
+      </c>
+      <c r="J8">
+        <f>E8</f>
+        <v>895</v>
+      </c>
+      <c r="K8">
+        <f>(((J8+I8)*2/1000)*'ITEM LIST'!F17*3)*110%</f>
+        <v>1269.5212529999999</v>
+      </c>
+      <c r="L8">
+        <f>((((J8+I8)*2/1000)*'ITEM LIST'!F18)*3)*110%</f>
+        <v>404.26557600000001</v>
       </c>
       <c r="M8">
-        <f>(D8*E8)*'ITEM LIST'!J8</f>
-        <v>0</v>
+        <f>(E8*D8)/92903.04*'ITEM LIST'!J4</f>
+        <v>674.35898760686416</v>
+      </c>
+      <c r="N8">
+        <f>'ITEM LIST'!J11</f>
+        <v>255</v>
+      </c>
+      <c r="O8">
+        <f>'ITEM LIST'!J12*2</f>
+        <v>170</v>
+      </c>
+      <c r="P8">
+        <f>'ITEM LIST'!$J7*3</f>
+        <v>240</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <f>((J8+I8))*2/1000*'ITEM LIST'!F10*3*110%</f>
+        <v>293.46367050000003</v>
+      </c>
+      <c r="S8">
+        <f>(J8*I8)/92903.04*'ITEM LIST'!J13</f>
+        <v>84.29487345085802</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>421.47436725429009</v>
       </c>
       <c r="V8">
+        <f>SUM(K8:U8)+F8+G8</f>
+        <v>4984.7689378120131</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>591.3490030586521</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+        <v>680.05135351744991</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>802.46059715059084</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G9">
-        <f>(((E9+D9)*2/15.5)*5*'ITEM LIST'!F11)*120%</f>
+        <f>(((D9+E9)*2/1000)*'ITEM LIST'!F11)*110%</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>(D9*E9)*'ITEM LIST'!J9</f>
+        <f>(E9*D9)/92903.04*'ITEM LIST'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K9:U9)+F9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G10">
-        <f>(((E10+D10)*2/15.5)*5*'ITEM LIST'!F12)*120%</f>
+        <f>(((D10+E10)*2/1000)*'ITEM LIST'!F12)*110%</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>(D10*E10)*'ITEM LIST'!J10</f>
+        <f>(E10*D10)/92903.04*'ITEM LIST'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K10:U10)+F10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G11">
-        <f>(((E11+D11)*2/15.5)*5*'ITEM LIST'!F13)*120%</f>
+        <f>(((D11+E11)*2/1000)*'ITEM LIST'!F13)*110%</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>(D11*E11)*'ITEM LIST'!J11</f>
+        <f>(E11*D11)/92903.04*'ITEM LIST'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K11:U11)+F11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G12">
-        <f>(((E12+D12)*2/15.5)*5*'ITEM LIST'!F14)*120%</f>
+        <f>(((D12+E12)*2/1000)*'ITEM LIST'!F14)*110%</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>(D12*E12)*'ITEM LIST'!J12</f>
+        <f>(E12*D12)/92903.04*'ITEM LIST'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K12:U12)+F12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G13">
-        <f>(((E13+D13)*2/15.5)*5*'ITEM LIST'!F15)*120%</f>
+        <f>(((D13+E13)*2/1000)*'ITEM LIST'!F15)*110%</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>(D13*E13)*'ITEM LIST'!J13</f>
+        <f>(E13*D13)/92903.04*'ITEM LIST'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K13:U13)+F13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="V14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+        <f>SUM(K14:U14)+F14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="V15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f>269*5.8</f>
-        <v>1560.2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <f>D21/19.3*12</f>
-        <v>970.07253886010358</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>D22*120%</f>
-        <v>1164.0870466321242</v>
+        <f>SUM(K15:U15)+F15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1107,79 +1356,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5692BE3A-7959-4013-A80E-EF53A006B061}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>147</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.83</v>
+      </c>
+      <c r="F3" s="15">
+        <f>'ITEM LIST'!$E3*'ITEM LIST'!$C3</f>
+        <v>269.01</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>140</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1.83</v>
-      </c>
-      <c r="F3" s="16">
-        <f>'ITEM LIST'!$E3*'ITEM LIST'!$C3</f>
-        <v>256.2</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>78</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -1187,50 +1436,50 @@
       <c r="E4" s="3">
         <v>1.244</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>'ITEM LIST'!$E4*'ITEM LIST'!$C4</f>
-        <v>174.16</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>27</v>
+        <v>182.86799999999999</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="3">
         <v>80</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15">
-        <v>140</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
+        <v>147</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>'ITEM LIST'!$E5*'ITEM LIST'!$C5</f>
-        <v>31.78</v>
-      </c>
-      <c r="I5" s="14" t="s">
+        <v>33.369</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>500</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>37</v>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>80</v>
@@ -1241,53 +1490,53 @@
       <c r="E6" s="3">
         <v>0.5181</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f>'ITEM LIST'!$E6*'ITEM LIST'!$C6</f>
         <v>41.448</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
         <v>200</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
         <v>80</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.71589999999999998</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>'ITEM LIST'!$E7*'ITEM LIST'!$C7</f>
         <v>57.271999999999998</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>80</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>49</v>
+      <c r="B8" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="3">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -1295,53 +1544,53 @@
       <c r="E8" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f>'ITEM LIST'!$E8*'ITEM LIST'!$C8</f>
-        <v>40.32</v>
-      </c>
-      <c r="I8" s="17" t="s">
+        <v>42.335999999999999</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="3">
         <v>50</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14">
         <v>80</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.71589999999999998</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f>'ITEM LIST'!$E9*'ITEM LIST'!$C9</f>
         <v>57.271999999999998</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>100</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>55</v>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="3">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -1349,51 +1598,51 @@
       <c r="E10" s="3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>'ITEM LIST'!$E10*'ITEM LIST'!$C10</f>
-        <v>31.78</v>
-      </c>
-      <c r="I10" s="17" t="s">
+        <v>33.369</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="3">
         <v>80</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="15">
-        <v>140</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="14">
+        <v>147</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f>'ITEM LIST'!$E11*'ITEM LIST'!$C11</f>
-        <v>40.32</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="15">
+        <v>42.335999999999999</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="14">
         <v>255</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>53</v>
+      <c r="B12" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
@@ -1401,62 +1650,165 @@
       <c r="E12" s="2">
         <v>1.2310000000000001</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="17">
         <f>'ITEM LIST'!$E12*'ITEM LIST'!$C12</f>
-        <v>172.34</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>33</v>
+        <v>180.95700000000002</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="J12" s="3">
         <v>85</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="19">
         <v>80</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>0.67820000000000003</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="15">
         <f>'ITEM LIST'!$E13*'ITEM LIST'!$C13</f>
         <v>54.256</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="14">
         <v>20</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="17" t="s">
-        <v>42</v>
+      <c r="B14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="23">
+        <v>147</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F14" s="17">
+        <f>'ITEM LIST'!$E14*'ITEM LIST'!$C14</f>
+        <v>177.13500000000002</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K15" s="9"/>
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="19">
+        <v>80</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="15">
+        <f>'ITEM LIST'!$E15*'ITEM LIST'!$C15</f>
+        <v>52</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="23">
+        <v>147</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1.345</v>
+      </c>
+      <c r="F16" s="17">
+        <f>'ITEM LIST'!$E16*'ITEM LIST'!$C16</f>
+        <v>197.715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="19">
+        <v>147</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F17" s="15">
+        <f>'ITEM LIST'!$E17*'ITEM LIST'!$C17</f>
+        <v>144.35399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="23">
+        <v>80</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.5746</v>
+      </c>
+      <c r="F18" s="17">
+        <f>'ITEM LIST'!$E18*'ITEM LIST'!$C18</f>
+        <v>45.968000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="15">
+        <f>'ITEM LIST'!$E19*'ITEM LIST'!$C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="17">
+        <f>'ITEM LIST'!$E20*'ITEM LIST'!$C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UPVC.xlsx
+++ b/UPVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\PhoenixTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38332A47-B837-4D6E-8882-D4F96C8B8A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A181D2C-2C70-4252-9E4C-FC942B7967F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
   </bookViews>
@@ -704,8 +704,8 @@
   <dimension ref="B3:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4:E8"/>
+      <pane xSplit="5" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>421.47436725429009</v>
       </c>
       <c r="V4">
-        <f>SUM(K4:U4)+F4+G4</f>
+        <f t="shared" ref="V4:V15" si="0">SUM(K4:U4)+F4+G4</f>
         <v>5820.8250928120133</v>
       </c>
       <c r="W4">
@@ -935,7 +935,7 @@
         <v>421.47436725429009</v>
       </c>
       <c r="V5">
-        <f>SUM(K5:U5)+F5+G5</f>
+        <f t="shared" si="0"/>
         <v>1848.5632908611542</v>
       </c>
       <c r="W5">
@@ -943,11 +943,11 @@
         <v>219.29723780163502</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X8" si="0">W5*115%</f>
+        <f t="shared" ref="X5:X8" si="1">W5*115%</f>
         <v>252.19182347188024</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y5:Y8" si="1">X5*118%</f>
+        <f t="shared" ref="Y5:Y8" si="2">X5*118%</f>
         <v>297.58635169681867</v>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>421.47436725429009</v>
       </c>
       <c r="V6">
-        <f>SUM(K6:U6)+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>3013.0724597628705</v>
       </c>
       <c r="W6">
@@ -1026,11 +1026,11 @@
         <v>357.44433040989412</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>411.06097997137823</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485.05195636622631</v>
       </c>
     </row>
@@ -1100,23 +1100,23 @@
         <v>100</v>
       </c>
       <c r="U7">
-        <f t="shared" ref="U7:U15" si="2">MIN(E7*D7/92903.04*50,2000)</f>
+        <f t="shared" ref="U7:U15" si="3">MIN(E7*D7/92903.04*50,2000)</f>
         <v>421.47436725429009</v>
       </c>
       <c r="V7">
-        <f>SUM(K7:U7)+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>4206.6683118611545</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="W7:W15" si="3">V7/(E7*D7)*92903.04</f>
+        <f t="shared" ref="W7:W15" si="4">V7/(E7*D7)*92903.04</f>
         <v>499.04201046265825</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573.89831203205699</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>677.20000819782717</v>
       </c>
     </row>
@@ -1191,23 +1191,23 @@
         <v>100</v>
       </c>
       <c r="U8">
+        <f t="shared" si="3"/>
+        <v>421.47436725429009</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>4984.7689378120131</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
+        <v>591.3490030586521</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>680.05135351744991</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="2"/>
-        <v>421.47436725429009</v>
-      </c>
-      <c r="V8">
-        <f>SUM(K8:U8)+F8+G8</f>
-        <v>4984.7689378120131</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
-        <v>591.3490030586521</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>680.05135351744991</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="1"/>
         <v>802.46059715059084</v>
       </c>
     </row>
@@ -1221,15 +1221,15 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUM(K9:U9)+F9+G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1243,15 +1243,15 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUM(K10:U10)+F10+G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1265,15 +1265,15 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUM(K11:U11)+F11+G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1287,15 +1287,15 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>SUM(K12:U12)+F12+G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1309,43 +1309,43 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f>SUM(K13:U13)+F13+G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>SUM(K14:U14)+F14+G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>SUM(K15:U15)+F15+G15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UPVC.xlsx
+++ b/UPVC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\PhoenixTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A181D2C-2C70-4252-9E4C-FC942B7967F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55954796-6F9C-4C5B-B51B-EF47495A00CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{3A4AF54F-C135-40A6-864C-09529CEE8C41}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>TC60-112</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>GITC60-4</t>
+  </si>
+  <si>
+    <t>Double Side Villa</t>
+  </si>
+  <si>
+    <t>PC60-22</t>
+  </si>
+  <si>
+    <t>PC60-6</t>
+  </si>
+  <si>
+    <t>GIPC60-22</t>
+  </si>
+  <si>
+    <t>GIPC60-6</t>
+  </si>
+  <si>
+    <t>PC60-9(Villa Beading)</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -701,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025413-3D1C-4364-BF5B-5EDF09FB8F88}">
-  <dimension ref="B3:Y15"/>
+  <dimension ref="B3:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,9 +745,10 @@
     <col min="14" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="23" width="11" customWidth="1"/>
     <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
@@ -799,8 +821,11 @@
       <c r="Y3" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -893,8 +918,22 @@
         <f>X4*118%</f>
         <v>937.05101242612989</v>
       </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <f>(D4*E4)/92903</f>
+        <v>8.4294909744572291</v>
+      </c>
+      <c r="AB4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>376</v>
+      </c>
+      <c r="AD4">
+        <f>AB4*AC4</f>
+        <v>6166.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -903,55 +942,69 @@
         <v>PC60-1</v>
       </c>
       <c r="D5" s="20">
-        <v>875</v>
+        <v>2415</v>
       </c>
       <c r="E5" s="20">
-        <v>895</v>
+        <v>600</v>
       </c>
       <c r="F5">
         <f>(((D5+E5)*2/1000)*'ITEM LIST'!F8)*110%</f>
-        <v>164.85638400000002</v>
+        <v>280.81468800000005</v>
       </c>
       <c r="G5">
         <f>(((D5+E5)*2/1000)*'ITEM LIST'!F9)*110%</f>
-        <v>223.017168</v>
+        <v>379.88517600000006</v>
       </c>
       <c r="M5">
         <f>(E5*D5)/92903.04*'ITEM LIST'!J4</f>
-        <v>674.35898760686416</v>
+        <v>1247.7524955049912</v>
       </c>
       <c r="Q5">
         <v>100</v>
       </c>
       <c r="R5">
         <f>((E5+D5))*2/1000*'ITEM LIST'!F11*110%</f>
-        <v>164.85638400000002</v>
+        <v>280.81468800000005</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
       <c r="U5">
         <f>MIN(E5*D5/92903.04*50,2000)</f>
-        <v>421.47436725429009</v>
+        <v>779.8453096906195</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>1848.5632908611542</v>
+        <v>3169.1123571956109</v>
       </c>
       <c r="W5">
         <f>V5/(E5*D5)*92903.04</f>
-        <v>219.29723780163502</v>
+        <v>203.18852455834238</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X8" si="1">W5*115%</f>
-        <v>252.19182347188024</v>
+        <f>W5*115%</f>
+        <v>233.66680324209372</v>
       </c>
       <c r="Y5">
-        <f t="shared" ref="Y5:Y8" si="2">X5*118%</f>
-        <v>297.58635169681867</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+        <f>X5*118%</f>
+        <v>275.72682782567057</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z9" si="1">(D5*E5)/92903</f>
+        <v>15.59691290916332</v>
+      </c>
+      <c r="AB5">
+        <v>14.89</v>
+      </c>
+      <c r="AC5">
+        <v>389</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD15" si="2">AB5*AC5</f>
+        <v>5792.21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1026,15 +1079,29 @@
         <v>357.44433040989412</v>
       </c>
       <c r="X6">
+        <f>W6*115%</f>
+        <v>411.06097997137823</v>
+      </c>
+      <c r="Y6">
+        <f>X6*118%</f>
+        <v>485.05195636622631</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="1"/>
-        <v>411.06097997137823</v>
-      </c>
-      <c r="Y6">
+        <v>8.4294909744572291</v>
+      </c>
+      <c r="AB6">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>300</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="2"/>
-        <v>485.05195636622631</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>10239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -1042,41 +1109,41 @@
         <v>58</v>
       </c>
       <c r="D7" s="20">
-        <v>875</v>
+        <v>1960</v>
       </c>
       <c r="E7" s="20">
-        <v>895</v>
+        <v>1210</v>
       </c>
       <c r="F7">
         <f>(((D7+E7)*2/1000)*'ITEM LIST'!F14)*110%</f>
-        <v>689.76369000000022</v>
+        <v>1235.3394900000003</v>
       </c>
       <c r="G7">
         <f>(((D7+E7)*2/1000)*'ITEM LIST'!F15)*110%</f>
-        <v>202.48800000000003</v>
+        <v>362.64800000000002</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7">
         <f>D7/2</f>
-        <v>437.5</v>
+        <v>980</v>
       </c>
       <c r="J7">
         <f>E7</f>
-        <v>895</v>
+        <v>1210</v>
       </c>
       <c r="K7">
         <f>(((J7+I7)*2/1000)*'ITEM LIST'!F4*2)*110%</f>
-        <v>1072.155084</v>
+        <v>1762.1160480000001</v>
       </c>
       <c r="L7">
         <f>((((J7+I7)*2/1000)*'ITEM LIST'!F7)*2)*110%</f>
-        <v>335.78573599999999</v>
+        <v>551.87299200000007</v>
       </c>
       <c r="M7">
         <f>(E7*D7)/92903.04*'ITEM LIST'!J4</f>
-        <v>674.35898760686416</v>
+        <v>2042.2151955415025</v>
       </c>
       <c r="N7">
         <f>'ITEM LIST'!J11</f>
@@ -1091,7 +1158,7 @@
       </c>
       <c r="R7">
         <f>((J7+I7))*2/1000*'ITEM LIST'!F10*2*110%</f>
-        <v>195.64244700000003</v>
+        <v>321.54368399999998</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1101,26 +1168,40 @@
       </c>
       <c r="U7">
         <f t="shared" ref="U7:U15" si="3">MIN(E7*D7/92903.04*50,2000)</f>
-        <v>421.47436725429009</v>
+        <v>1276.3844972134389</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>4206.6683118611545</v>
+        <v>8167.1199067549433</v>
       </c>
       <c r="W7">
         <f t="shared" ref="W7:W15" si="4">V7/(E7*D7)*92903.04</f>
-        <v>499.04201046265825</v>
+        <v>319.93180442825548</v>
       </c>
       <c r="X7">
+        <f>W7*115%</f>
+        <v>367.92157509249375</v>
+      </c>
+      <c r="Y7">
+        <f>X7*118%</f>
+        <v>434.14745860914263</v>
+      </c>
+      <c r="Z7">
         <f t="shared" si="1"/>
-        <v>573.89831203205699</v>
-      </c>
-      <c r="Y7">
+        <v>25.527700935384217</v>
+      </c>
+      <c r="AB7">
+        <v>41.06</v>
+      </c>
+      <c r="AC7">
+        <v>291</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="2"/>
-        <v>677.20000819782717</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+        <v>11948.460000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>62</v>
       </c>
@@ -1203,37 +1284,122 @@
         <v>591.3490030586521</v>
       </c>
       <c r="X8">
+        <f>W8*115%</f>
+        <v>680.05135351744991</v>
+      </c>
+      <c r="Y8">
+        <f>X8*118%</f>
+        <v>802.46059715059084</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="1"/>
-        <v>680.05135351744991</v>
-      </c>
-      <c r="Y8">
+        <v>8.4294909744572291</v>
+      </c>
+      <c r="AB8">
+        <v>60</v>
+      </c>
+      <c r="AC8">
+        <v>269.2</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="2"/>
-        <v>802.46059715059084</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+        <v>16152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="20">
+        <v>488</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1428</v>
+      </c>
+      <c r="F9">
+        <f>(((D9+E9)*2/1000)*'ITEM LIST'!F19)*110%</f>
+        <v>935.64794400000005</v>
+      </c>
       <c r="G9">
-        <f>(((D9+E9)*2/1000)*'ITEM LIST'!F11)*110%</f>
-        <v>0</v>
+        <f>(((D9+E9)*2/1000)*'ITEM LIST'!F21)*110%</f>
+        <v>279.55206399999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <f>D9</f>
+        <v>488</v>
+      </c>
+      <c r="J9">
+        <f>E9</f>
+        <v>1428</v>
+      </c>
+      <c r="K9">
+        <f>(((J9+I9)*2/1000)*'ITEM LIST'!F20*2)*110%</f>
+        <v>1511.9079360000001</v>
+      </c>
+      <c r="L9">
+        <f>((((J9+I9)*2/1000)*'ITEM LIST'!F22)*2)*110%</f>
+        <v>489.16552960000001</v>
       </c>
       <c r="M9">
-        <f>(E9*D9)/92903.04*'ITEM LIST'!J6</f>
-        <v>0</v>
+        <f>(E9*D9)/92903.04*'ITEM LIST'!J4</f>
+        <v>600.07853349040033</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <f>((J9+I9))*2/1000*'ITEM LIST'!F23*2*110%</f>
+        <v>350.71307039999999</v>
+      </c>
+      <c r="S9">
+        <f>(J9*I9)/92903.04*'ITEM LIST'!J13</f>
+        <v>150.01963337260008</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>375.04908343150021</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" t="e">
+        <v>4892.1337942945011</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+        <v>652.19914011441801</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X15" si="5">W9*115%</f>
+        <v>750.02901113158066</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y9:Y15" si="6">X9*118%</f>
+        <v>885.03423313526514</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>7.5009848982271832</v>
+      </c>
+      <c r="AB9">
+        <v>16</v>
+      </c>
+      <c r="AC9">
+        <v>203</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="G10">
         <f>(((D10+E10)*2/1000)*'ITEM LIST'!F12)*110%</f>
         <v>0</v>
@@ -1254,8 +1420,26 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X10" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10">
+        <v>39.17</v>
+      </c>
+      <c r="AC10">
+        <v>284</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>11124.28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="G11">
         <f>(((D11+E11)*2/1000)*'ITEM LIST'!F13)*110%</f>
         <v>0</v>
@@ -1276,8 +1460,26 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X11" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11">
+        <v>39</v>
+      </c>
+      <c r="AC11">
+        <v>284</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="G12">
         <f>(((D12+E12)*2/1000)*'ITEM LIST'!F14)*110%</f>
         <v>0</v>
@@ -1298,8 +1500,26 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12">
+        <v>25.52</v>
+      </c>
+      <c r="AC12">
+        <v>320</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>8166.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="G13">
         <f>(((D13+E13)*2/1000)*'ITEM LIST'!F15)*110%</f>
         <v>0</v>
@@ -1320,8 +1540,24 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X13" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13">
+        <f>SUM(AB4:AB12)</f>
+        <v>286.17</v>
+      </c>
+      <c r="AD13">
+        <f>SUM(AD4:AD12)</f>
+        <v>83912.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="U14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1334,8 +1570,24 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14">
+        <f>AD13/AB13</f>
+        <v>293.2269280497606</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="U15">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1347,6 +1599,36 @@
       <c r="W15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15">
+        <f>AD13*0.15</f>
+        <v>12586.9125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AD16">
+        <f>AD15+AD13</f>
+        <v>96499.662500000006</v>
+      </c>
+    </row>
+    <row r="17" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD17">
+        <f>AD16/AB13</f>
+        <v>337.21096725722475</v>
+      </c>
+    </row>
+    <row r="18" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <f>AB13*500</f>
+        <v>143085</v>
       </c>
     </row>
   </sheetData>
@@ -1356,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5692BE3A-7959-4013-A80E-EF53A006B061}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,25 +2072,112 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="19">
+        <v>147</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1.51</v>
+      </c>
       <c r="F19" s="15">
         <f>'ITEM LIST'!$E19*'ITEM LIST'!$C19</f>
-        <v>0</v>
+        <v>221.97</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="23">
+        <v>147</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1.22</v>
+      </c>
       <c r="F20" s="17">
         <f>'ITEM LIST'!$E20*'ITEM LIST'!$C20</f>
-        <v>0</v>
+        <v>179.34</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="19">
+        <v>80</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F21" s="17">
+        <f>'ITEM LIST'!$E21*'ITEM LIST'!$C21</f>
+        <v>66.319999999999993</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="17"/>
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="23">
+        <v>80</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="F22" s="17">
+        <f>'ITEM LIST'!$E22*'ITEM LIST'!$C22</f>
+        <v>58.023999999999994</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="15"/>
+      <c r="B23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="19">
+        <v>147</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F23" s="17">
+        <f>'ITEM LIST'!$E23*'ITEM LIST'!$C23</f>
+        <v>41.600999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="17">
+        <f>'ITEM LIST'!$E24*'ITEM LIST'!$C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="17">
+        <f>'ITEM LIST'!$E25*'ITEM LIST'!$C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="17">
+        <f>'ITEM LIST'!$E26*'ITEM LIST'!$C26</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
